--- a/data/trans_camb/P1409-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1409-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.3944029543641</v>
+        <v>-1.588629595003362</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.0943960435918404</v>
+        <v>-0.2649694107290447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.237573313522103</v>
+        <v>-1.320140522222275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3979928850195681</v>
+        <v>0.1414879957041696</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9273179472387844</v>
+        <v>-0.667334092022342</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8388286524268472</v>
+        <v>0.7921679655910742</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.175245961473107</v>
+        <v>2.309141134039798</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.035784548266126</v>
+        <v>3.742416212342078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.504856882472392</v>
+        <v>3.451965222878237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.946044389672486</v>
+        <v>4.892839519632856</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.097181829021509</v>
+        <v>2.045254431106554</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.830083595205865</v>
+        <v>3.75623378480923</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6366882152432969</v>
+        <v>-0.6839567877421356</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1140373273233686</v>
+        <v>-0.2236276437556234</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4920796242067575</v>
+        <v>-0.5647532759506972</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1078161617987501</v>
+        <v>-0.09672903685543516</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4214872210488916</v>
+        <v>-0.3362696075030469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2956824987283729</v>
+        <v>0.2642912330445835</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.804186892669942</v>
+        <v>3.064862598403096</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.102923276477916</v>
+        <v>4.642652954405317</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>8.895193680485608</v>
+        <v>6.601637810201647</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.962271021289223</v>
+        <v>8.641411127028979</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.250920201851816</v>
+        <v>2.134091809494723</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.619245549108919</v>
+        <v>4.068793973878737</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>0.5472049525898269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.384189672778297</v>
+        <v>2.384189672778299</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9232323494571509</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.267048136151685</v>
+        <v>-1.137841138550239</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4436633192862006</v>
+        <v>0.005889589995784457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.834248144610306</v>
+        <v>-2.755365895535748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7991899420694858</v>
+        <v>-1.076737955620364</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9246935537936367</v>
+        <v>-0.9887812675130457</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6176827627160735</v>
+        <v>0.4975072935662875</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.208159591352358</v>
+        <v>3.174186746866053</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.445536989074923</v>
+        <v>5.197532662571327</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.580209682445924</v>
+        <v>3.344883683269464</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.301747857653176</v>
+        <v>4.969560506831077</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.901161290723756</v>
+        <v>2.775462462577213</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.482972275471363</v>
+        <v>4.328515682580504</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.1368103518159237</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.5960871267427833</v>
+        <v>0.5960871267427836</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3520680914803556</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5936208076473698</v>
+        <v>-0.6462364216769826</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2295029097622784</v>
+        <v>-0.2497379558953237</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4530553646967842</v>
+        <v>-0.5019814084152634</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.153149513269181</v>
+        <v>-0.1964553573960226</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.273821054727324</v>
+        <v>-0.3024271388706093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1112891296334911</v>
+        <v>0.09792685127152355</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.176606152736912</v>
+        <v>4.926841220878352</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7.557266302213004</v>
+        <v>7.74127346221374</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.646328501777774</v>
+        <v>1.296137275357935</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.17099495134835</v>
+        <v>2.099702784451995</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.544840493003207</v>
+        <v>1.515245666580012</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.528646842918057</v>
+        <v>2.382064405183375</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.407188160092897</v>
+        <v>-1.488979081274826</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.495603071758328</v>
+        <v>-0.7376806868945326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.156881468405844</v>
+        <v>-2.961921320865859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.006577783412526</v>
+        <v>-2.005793926182837</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.609004905854834</v>
+        <v>-1.567317044088617</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.466859060324512</v>
+        <v>-0.3891165185576503</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.593947208804852</v>
+        <v>1.473626156937461</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.484435861560946</v>
+        <v>3.316791166146308</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.680102201417037</v>
+        <v>4.170659130910623</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.066581906000407</v>
+        <v>3.984777081473062</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.419978900895305</v>
+        <v>1.486471352302281</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.923038655947352</v>
+        <v>2.891231370671313</v>
       </c>
     </row>
     <row r="19">
@@ -1010,13 +1010,13 @@
         <v>-0.004608845165651251</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.6207270003620334</v>
+        <v>0.6207270003620337</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.04051839538515736</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.4654786090427484</v>
+        <v>0.4654786090427481</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.01459203041606783</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5899738620912198</v>
+        <v>-0.641117554849273</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2860200208360598</v>
+        <v>-0.3293447605403799</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8094700583205106</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5881793958473922</v>
+        <v>-0.5211127799295783</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6147045881714372</v>
+        <v>-0.600566813306158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2323129172639824</v>
+        <v>-0.1802839755498112</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.658471827258781</v>
+        <v>1.623011352901903</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.537662983471058</v>
+        <v>3.127338910272173</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.984166712600639</v>
+        <v>3.826658378560543</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.114281250665273</v>
+        <v>3.144712348125804</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.048910246890887</v>
+        <v>1.089759881280259</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.19590539129647</v>
+        <v>2.260350316360136</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.111534497101601</v>
+        <v>-1.092585354413638</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3280655574361545</v>
+        <v>0.2314345914008341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.312167838559343</v>
+        <v>-1.241017029559041</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.07875122185707165</v>
+        <v>0.01273609049260794</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8259744001516406</v>
+        <v>-0.7171239773726437</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.686502059543586</v>
+        <v>0.7152679272365615</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.254214129305498</v>
+        <v>1.272654519517988</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.549562505188702</v>
+        <v>3.362696021767227</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.072274193195864</v>
+        <v>2.138142492859383</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.412678228285287</v>
+        <v>3.610780618981403</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.233205732221351</v>
+        <v>1.278068196695508</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.038447319513257</v>
+        <v>3.116143495438785</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4284329183678547</v>
+        <v>-0.412187283548637</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07665523748542662</v>
+        <v>0.06741414032383164</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3844984698873996</v>
+        <v>-0.3648605401014407</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02984118117925859</v>
+        <v>-0.006663212654687202</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2992877905045269</v>
+        <v>-0.2666018282286207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2389767485327179</v>
+        <v>0.228948525068683</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.859655947420078</v>
+        <v>0.9053873284073547</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.342210821953997</v>
+        <v>2.308916757006528</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.121108435760134</v>
+        <v>1.252004368445379</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.775135707629163</v>
+        <v>1.973296192508637</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6652440830278603</v>
+        <v>0.6946912314457647</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.664251641280142</v>
+        <v>1.688399648205935</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>2.257018551519399</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.997403594578549</v>
+        <v>1.997403594578548</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1.774984634217051</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8130026491287869</v>
+        <v>-0.655745520840868</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9280210550290114</v>
+        <v>0.9121906926518187</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3071061112392133</v>
+        <v>0.3479647047150276</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2030969974239732</v>
+        <v>0.1715849492515185</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.284722639410384</v>
+        <v>0.4015144607734222</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.031809120814305</v>
+        <v>1.123834184483824</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.113368261307802</v>
+        <v>3.287566778041718</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.975936994318907</v>
+        <v>5.860405015833308</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.446552993290981</v>
+        <v>4.321544661176632</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.792472230966479</v>
+        <v>3.712585269553253</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.277036668921513</v>
+        <v>3.26281704680368</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.911302323067519</v>
+        <v>3.958858583997265</v>
       </c>
     </row>
     <row r="31">
@@ -1336,7 +1336,7 @@
         <v>0.7485214695549315</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.6624223238669233</v>
+        <v>0.6624223238669229</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.66128032508922</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2640301234811678</v>
+        <v>-0.2201179212392314</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2178360763725656</v>
+        <v>0.2193642179959972</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.03238959742410931</v>
+        <v>-0.03565455590828855</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01072192928424469</v>
+        <v>0.01404605274344262</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06904712089810487</v>
+        <v>0.09914881771245998</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2716010779173598</v>
+        <v>0.2946659190440343</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.41481420696443</v>
+        <v>2.520464894727924</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.659385940598096</v>
+        <v>4.47749819232593</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.090005991180598</v>
+        <v>1.971207664613734</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.838473312049726</v>
+        <v>1.797961980323642</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.56048036098247</v>
+        <v>1.625976832664101</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.944645893961594</v>
+        <v>1.960066262027661</v>
       </c>
     </row>
     <row r="34">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.7211436154665753</v>
+        <v>-1.07394448801571</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.446674978596785</v>
+        <v>-2.288277737877411</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.01599268558221844</v>
+        <v>-0.0465402196576244</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.4325604070703573</v>
+        <v>0.2716119330991201</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.3758632002781647</v>
+        <v>0.2967339885622423</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.2317373931671453</v>
+        <v>0.1677877436499692</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.369668615351249</v>
+        <v>5.292495291371391</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.08894144750635</v>
+        <v>7.789729020581642</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.094131260974067</v>
+        <v>3.074929000648664</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.502145897993116</v>
+        <v>3.296535266978695</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.141893506469922</v>
+        <v>3.010953093051226</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.480496383104355</v>
+        <v>3.524100673087553</v>
       </c>
     </row>
     <row r="37">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2850044097934409</v>
+        <v>-0.3543656637955681</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9368516886156888</v>
+        <v>-0.9183709669574396</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0493600369413658</v>
+        <v>-0.04314492105869158</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1568656342958714</v>
+        <v>0.105680893388377</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1119324072458815</v>
+        <v>0.0673712079487067</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04544764422222065</v>
+        <v>0.04735527668381087</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.863780980327464</v>
+        <v>4.100681065414165</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>9.166385706331299</v>
+        <v>6.592276966596882</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.737159939094669</v>
+        <v>1.694161928584223</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.967124058729917</v>
+        <v>1.83284328774288</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.745104998114685</v>
+        <v>1.530647789136359</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.832784737463506</v>
+        <v>1.788704588210883</v>
       </c>
     </row>
     <row r="40">
@@ -1572,19 +1572,19 @@
         <v>0.6337027293467072</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1.954056331334051</v>
+        <v>1.95405633133405</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>1.201141825781095</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2.064199507469699</v>
+        <v>2.064199507469698</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0.9247335112294333</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.014344336622471</v>
+        <v>2.01434433662247</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.06778080038742722</v>
+        <v>-0.1230757053488133</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.063341436900143</v>
+        <v>1.154050537000922</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.381311419395243</v>
+        <v>0.2764764687136674</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.281362516170767</v>
+        <v>1.291058113168475</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.3725766596203804</v>
+        <v>0.3035088548046898</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.463508002150989</v>
+        <v>1.390827523513292</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.372070630722861</v>
+        <v>1.428249659399911</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.94390535263562</v>
+        <v>2.971470506868508</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.203179897932137</v>
+        <v>2.146420962302391</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.83238151758944</v>
+        <v>2.900109634326448</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.493473963803884</v>
+        <v>1.447879101674615</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.666470426920276</v>
+        <v>2.598117806491352</v>
       </c>
     </row>
     <row r="43">
@@ -1650,19 +1650,19 @@
         <v>0.3314637911797867</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>1.022086366000935</v>
+        <v>1.022086366000934</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.4428061493228038</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.7609761109952947</v>
+        <v>0.7609761109952945</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3987098475649614</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.8685085093653798</v>
+        <v>0.8685085093653796</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0340080852679349</v>
+        <v>-0.06819166651274194</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4040832064557318</v>
+        <v>0.4936117803965587</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1049489583840535</v>
+        <v>0.07873825781407563</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.4050115162384055</v>
+        <v>0.4049097660208036</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1360285441194259</v>
+        <v>0.1149795233861878</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5640901848860477</v>
+        <v>0.5440850650769774</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8825678175767803</v>
+        <v>0.897078112124972</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.731347910821708</v>
+        <v>1.894633541877997</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9506765075806785</v>
+        <v>0.9081708343127779</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.263489851700939</v>
+        <v>1.254740176243178</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.716011076948524</v>
+        <v>0.6839958370118467</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.307634924966609</v>
+        <v>1.255942790186561</v>
       </c>
     </row>
     <row r="46">
